--- a/public/excel/apl_form_new_new.xlsx
+++ b/public/excel/apl_form_new_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faizuljasmi/Documents/developments/infomina_careers/public/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01E3F16-352D-DA4F-B0B2-575E90C6333A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E0E98B-3551-4716-9BB2-DF97FB1D9F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7120" yWindow="-21060" windowWidth="25900" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP FORM" sheetId="1" r:id="rId1"/>
@@ -23,20 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>APPLICATION FOR EMPLOYMENT</t>
   </si>
   <si>
-    <t>Position Applied For :</t>
-  </si>
-  <si>
-    <t>Date :</t>
-  </si>
-  <si>
-    <t>APPLICANT'S PARTICULARS</t>
-  </si>
-  <si>
     <t>Name:</t>
   </si>
   <si>
@@ -67,81 +58,24 @@
     <t>Marital Status:</t>
   </si>
   <si>
-    <t>HEALTH CONDITIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Have you suffered from or are you currently suffering from any serious illness? ( If yes, please state exact details )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ______________________________________________________________________________________________</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  For female candidate ;  are you pregnant now ?</t>
-  </si>
-  <si>
-    <t>REFEREES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Please provide 2 referees for our reference ( Referees must not be your next-of-kin )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Tel. No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Occupation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  No. of  years known</t>
-  </si>
-  <si>
     <t>WILLING TO TRAVEL: No / Light / Moderate / Heavy</t>
   </si>
   <si>
-    <t>NOTICE PERIOD:____________________</t>
-  </si>
-  <si>
-    <t>CURRENT SALARY:_____________________</t>
-  </si>
-  <si>
-    <t>EXPECTED SALARY:_________________</t>
-  </si>
-  <si>
     <t>Please tick whichever applicable:</t>
   </si>
   <si>
     <t>Attached my resume</t>
   </si>
   <si>
-    <t>Refer to my resume from Recruitment Portal/Social Network _____________________________</t>
-  </si>
-  <si>
     <t>Refer to my resume as sent by post / by hand / by e-mail</t>
   </si>
   <si>
     <t>ADDITIONAL INFORMATION</t>
   </si>
   <si>
-    <t xml:space="preserve">  Please state additional information which may be important in support of your application. Include any special talents,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  personal qualities or achievements not otherwise state in your resume.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   _______________________________________________________________________________________________</t>
-  </si>
-  <si>
     <t>I HEREBY DECLARE THAT INFORMATION GIVEN ABOVE AND THOSE IN MY RESUME ARE COMPLETED AND TRUE.</t>
   </si>
   <si>
-    <t>I UNDERSTAND THAT ANY MISREPRESENTATION OF FACTS GIVEN HEREIN WILL BE SUFFICIENT CAUSE FOR</t>
-  </si>
-  <si>
-    <t>DISMISSAL FROM THE COMPANY'S SERVICES IF I HAVE BEEN EMPLOYED.</t>
-  </si>
-  <si>
     <t>This form is completed online</t>
   </si>
   <si>
@@ -158,13 +92,73 @@
   </si>
   <si>
     <t>National ID No:</t>
+  </si>
+  <si>
+    <t>Position Applied For:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Have you suffered from or are you currently suffering from any serious illness? (If yes, please state exact details)</t>
+  </si>
+  <si>
+    <t>For female candidate; are you pregnant now?</t>
+  </si>
+  <si>
+    <t>Please provide 2 referees for our reference (Referees must not be your next-of-kin)</t>
+  </si>
+  <si>
+    <t>NOTICE PERIOD:</t>
+  </si>
+  <si>
+    <t>EXPECTED SALARY:</t>
+  </si>
+  <si>
+    <t>CURRENT SALARY:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refer to my resume from Recruitment Portal/Social Network </t>
+  </si>
+  <si>
+    <t>_______________________________________________________________________________________________</t>
+  </si>
+  <si>
+    <t>Please state additional information which may be important in support of your application. Include any special talents,</t>
+  </si>
+  <si>
+    <t>THE COMPANY'S SERVICES IF I HAVE BEEN EMPLOYED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I UNDERSTAND THAT ANY MISREPRESENTATION OF FACTS GIVEN HEREIN WILL BE SUFFICIENT CAUSE FOR DISMISSAL FROM </t>
+  </si>
+  <si>
+    <t>personal qualities, or achievements not otherwise stated in your resume.</t>
+  </si>
+  <si>
+    <t>Tel. No.:</t>
+  </si>
+  <si>
+    <t>Occupation:</t>
+  </si>
+  <si>
+    <t>No. of years known:</t>
+  </si>
+  <si>
+    <t>HEALTH CONDITION</t>
+  </si>
+  <si>
+    <t>REFEREE</t>
+  </si>
+  <si>
+    <t>APPLICANT INFORMATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -172,44 +166,52 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
-      <name val="Bookman Old Style"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -403,15 +405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -476,37 +469,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -520,6 +482,54 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -530,100 +540,151 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,109 +708,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3076" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000040C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1276350" y="8515350"/>
-          <a:ext cx="266700" cy="158750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3077" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000050C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1276350" y="8807450"/>
-          <a:ext cx="266700" cy="158750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -766,8 +733,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1276350" y="8223250"/>
-          <a:ext cx="266700" cy="158750"/>
+          <a:off x="1057275" y="8924925"/>
+          <a:ext cx="238125" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -782,6 +749,121 @@
           <a:miter lim="800000"/>
         </a:ln>
       </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-MY"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D668548-50B9-42B4-97E6-C40FAB1575E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="9372600"/>
+          <a:ext cx="238125" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-MY"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270BE801-F8B2-4EFA-AA32-7C6648308147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="9839325"/>
+          <a:ext cx="238125" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-MY"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1109,453 +1191,645 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.7109375" style="1"/>
-    <col min="5" max="5" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.6640625" style="2"/>
+    <col min="5" max="5" width="3.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" ht="18" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1">
+      <c r="A7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1">
+      <c r="A9" s="43" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1">
+      <c r="A10" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="H10" s="46"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1">
+      <c r="A11" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="47"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1">
+      <c r="A12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="31" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="29" t="s">
+      <c r="D12" s="40"/>
+      <c r="E12" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="30"/>
-    </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="17"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1">
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1">
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1">
+      <c r="A26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1">
+      <c r="A28" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1">
+      <c r="A29" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" customHeight="1">
+      <c r="A30" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="34"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" customHeight="1">
+      <c r="A31" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="34"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1">
+      <c r="A32" s="9"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" customHeight="1">
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" customHeight="1">
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="1:9" ht="18" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1">
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1">
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" customHeight="1">
+      <c r="B40" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="I40" s="34"/>
+    </row>
+    <row r="41" spans="1:9" ht="18" customHeight="1">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" customHeight="1">
+      <c r="B42" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" customHeight="1">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9" ht="18" customHeight="1">
+      <c r="B44" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:9" ht="18" customHeight="1">
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" customHeight="1">
+      <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" ht="6.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="I46" s="34"/>
+    </row>
+    <row r="47" spans="1:9" ht="18" customHeight="1">
+      <c r="A47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="34"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" customHeight="1">
+      <c r="A48" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="34"/>
+    </row>
+    <row r="49" spans="1:9" ht="18" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="34"/>
+    </row>
+    <row r="50" spans="1:9" ht="18" customHeight="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="34"/>
+    </row>
+    <row r="51" spans="1:9" ht="18" customHeight="1">
+      <c r="A51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="34"/>
+    </row>
+    <row r="52" spans="1:9" ht="18" customHeight="1">
+      <c r="A52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="34"/>
+    </row>
+    <row r="53" spans="1:9" ht="18" customHeight="1">
+      <c r="A53" s="9"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="35"/>
+    </row>
+    <row r="54" spans="1:9" ht="18" customHeight="1">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="34"/>
+    </row>
+    <row r="55" spans="1:9" ht="18" customHeight="1">
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+    </row>
+    <row r="56" spans="1:9" ht="18" customHeight="1">
+      <c r="A56" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="I56" s="34"/>
+    </row>
+    <row r="57" spans="1:9" ht="18" customHeight="1">
+      <c r="A57" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="34"/>
+    </row>
+    <row r="58" spans="1:9" ht="18" customHeight="1">
+      <c r="A58" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" ht="18" customHeight="1">
+      <c r="I59" s="34"/>
+    </row>
+    <row r="60" spans="1:9" ht="18" customHeight="1">
+      <c r="I60" s="34"/>
+    </row>
+    <row r="61" spans="1:9" ht="18" customHeight="1">
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="1:9" ht="18" customHeight="1">
+      <c r="A62" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" ht="0.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:9" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="B62" s="48"/>
+      <c r="I62" s="34"/>
+    </row>
+    <row r="63" spans="1:9" ht="18" customHeight="1">
+      <c r="A63" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="1:9" ht="5.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="I27" s="26"/>
-    </row>
-    <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="F28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="F29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="F30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="F31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="24.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40"/>
-      <c r="B40" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42"/>
-      <c r="B42" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44"/>
-      <c r="B44" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="25"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="22"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="22"/>
-    </row>
-    <row r="49" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="I49" s="22"/>
-    </row>
-    <row r="50" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
-      <c r="I50" s="22"/>
-    </row>
-    <row r="51" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I51" s="22"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I52" s="23"/>
-    </row>
-    <row r="53" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="17"/>
-    </row>
-    <row r="54" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="19"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="19"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B63" s="48"/>
+      <c r="I63" s="34"/>
+    </row>
+    <row r="64" spans="1:9" ht="18" customHeight="1">
+      <c r="I64" s="34"/>
+    </row>
+    <row r="65" spans="9:9" ht="18" customHeight="1">
+      <c r="I65" s="34"/>
+    </row>
+    <row r="66" spans="9:9" ht="18" customHeight="1">
+      <c r="I66" s="34"/>
+    </row>
+    <row r="67" spans="9:9" ht="18" customHeight="1">
+      <c r="I67" s="34"/>
+    </row>
+    <row r="68" spans="9:9" ht="18" customHeight="1">
+      <c r="I68" s="34"/>
+    </row>
+    <row r="69" spans="9:9" ht="18" customHeight="1">
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="9:9" ht="18" customHeight="1">
+      <c r="I70" s="34"/>
+    </row>
+    <row r="71" spans="9:9" ht="18" customHeight="1">
+      <c r="I71" s="34"/>
+    </row>
+    <row r="72" spans="9:9" ht="18" customHeight="1">
+      <c r="I72" s="34"/>
+    </row>
+    <row r="73" spans="9:9" ht="18" customHeight="1">
+      <c r="I73" s="34"/>
+    </row>
+    <row r="74" spans="9:9" ht="18" customHeight="1">
+      <c r="I74" s="34"/>
+    </row>
+    <row r="75" spans="9:9" ht="18" customHeight="1">
+      <c r="I75" s="34"/>
+    </row>
+    <row r="76" spans="9:9" ht="18" customHeight="1">
+      <c r="I76" s="34"/>
+    </row>
+    <row r="77" spans="9:9" ht="18" customHeight="1">
+      <c r="I77" s="34"/>
+    </row>
+    <row r="78" spans="9:9" ht="18" customHeight="1">
+      <c r="I78" s="34"/>
+    </row>
+    <row r="79" spans="9:9" ht="18" customHeight="1">
+      <c r="I79" s="34"/>
+    </row>
+    <row r="80" spans="9:9" ht="18" customHeight="1">
+      <c r="I80" s="34"/>
+    </row>
+    <row r="81" spans="9:9" ht="18" customHeight="1">
+      <c r="I81" s="34"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="11">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.65" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.30972222222222201"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait"/>
